--- a/Data_for_labs_v1.xlsx
+++ b/Data_for_labs_v1.xlsx
@@ -1,34 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <workbookPr hidePivotFieldList="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mislav\Introduction_to_DS_Homework\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A13BC4-FB4C-4302-A0C1-C02FA64712EB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740" activeTab="5"/>
+    <workbookView xWindow="4455" yWindow="2400" windowWidth="25035" windowHeight="11565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
-    <sheet name="Loans Number" sheetId="1" r:id="rId2"/>
-    <sheet name="Loan Amount" sheetId="2" r:id="rId3"/>
-    <sheet name="Restaurant guests" sheetId="3" r:id="rId4"/>
-    <sheet name="Exercise 4" sheetId="5" r:id="rId5"/>
-    <sheet name="Exercise 5" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId7"/>
+    <sheet name="Loans Number" sheetId="1" r:id="rId1"/>
+    <sheet name="Loan Amount" sheetId="2" r:id="rId2"/>
+    <sheet name="Restaurant guests" sheetId="3" r:id="rId3"/>
+    <sheet name="Exercise 4" sheetId="5" r:id="rId4"/>
+    <sheet name="Exercise 5" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="33">
   <si>
     <t>Loans number per day Branch 1</t>
   </si>
@@ -108,15 +119,6 @@
     <t>Turnover in HRK</t>
   </si>
   <si>
-    <t>Brojač</t>
-  </si>
-  <si>
-    <t>Sum of Brojač</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
     <t>Grand Total</t>
   </si>
   <si>
@@ -141,7 +143,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -234,9 +236,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="user" refreshedDate="43925.374453124998" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="286">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="user" refreshedDate="43925.374453124998" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="286" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:B287" sheet="Loans Number"/>
+    <worksheetSource ref="A1:A287" sheet="Loans Number"/>
   </cacheSource>
   <cacheFields count="2">
     <cacheField name="Loans number per day Branch 1" numFmtId="0">
@@ -1415,81 +1417,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="11">
-        <item x="2"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="0"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Brojač" fld="1" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="xi">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="xi">
   <location ref="A2:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -1557,6 +1485,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -1817,133 +1748,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A287"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>7</v>
-      </c>
-      <c r="B10" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="5">
-        <v>286</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B287"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="B287" sqref="B1:B287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1951,2309 +1767,1449 @@
     <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>9</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>8</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>7</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>9</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>9</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>8</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>8</v>
       </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>6</v>
       </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>8</v>
       </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>6</v>
       </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>10</v>
       </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>10</v>
       </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>8</v>
       </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10</v>
       </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>10</v>
       </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>6</v>
       </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2</v>
       </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5</v>
       </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>10</v>
       </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>9</v>
       </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>7</v>
       </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>4</v>
       </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>4</v>
       </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>6</v>
       </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>6</v>
       </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>4</v>
       </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2</v>
       </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>8</v>
       </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>3</v>
       </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>8</v>
       </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2</v>
       </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>6</v>
       </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>9</v>
       </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>8</v>
       </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3</v>
       </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>6</v>
       </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>8</v>
       </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>7</v>
       </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2</v>
       </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>8</v>
       </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>7</v>
       </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>7</v>
       </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>9</v>
       </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>9</v>
       </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>8</v>
       </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>10</v>
       </c>
-      <c r="B84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2</v>
       </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1</v>
       </c>
-      <c r="B86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>7</v>
       </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>5</v>
       </c>
-      <c r="B88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1</v>
       </c>
-      <c r="B89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>7</v>
       </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>9</v>
       </c>
-      <c r="B91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>4</v>
       </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>7</v>
       </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>7</v>
       </c>
-      <c r="B94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
-      <c r="B95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2</v>
       </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1</v>
       </c>
-      <c r="B97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>3</v>
       </c>
-      <c r="B98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2</v>
       </c>
-      <c r="B99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1</v>
       </c>
-      <c r="B100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>9</v>
       </c>
-      <c r="B101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>9</v>
       </c>
-      <c r="B102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>4</v>
       </c>
-      <c r="B103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>9</v>
       </c>
-      <c r="B104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>8</v>
       </c>
-      <c r="B105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1</v>
       </c>
-      <c r="B106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>5</v>
       </c>
-      <c r="B107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2</v>
       </c>
-      <c r="B108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>8</v>
       </c>
-      <c r="B109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>10</v>
       </c>
-      <c r="B110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>8</v>
       </c>
-      <c r="B111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>8</v>
       </c>
-      <c r="B112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>8</v>
       </c>
-      <c r="B113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2</v>
       </c>
-      <c r="B114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>5</v>
       </c>
-      <c r="B115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>4</v>
       </c>
-      <c r="B116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>7</v>
       </c>
-      <c r="B117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>9</v>
       </c>
-      <c r="B118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>7</v>
       </c>
-      <c r="B119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>8</v>
       </c>
-      <c r="B120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>5</v>
       </c>
-      <c r="B121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>5</v>
       </c>
-      <c r="B122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>10</v>
       </c>
-      <c r="B123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>4</v>
       </c>
-      <c r="B124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>5</v>
       </c>
-      <c r="B125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1</v>
       </c>
-      <c r="B126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2</v>
       </c>
-      <c r="B127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>3</v>
       </c>
-      <c r="B128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>4</v>
       </c>
-      <c r="B129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1</v>
       </c>
-      <c r="B130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>9</v>
       </c>
-      <c r="B131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>4</v>
       </c>
-      <c r="B132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
-      <c r="B133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>4</v>
       </c>
-      <c r="B134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>3</v>
       </c>
-      <c r="B135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>4</v>
       </c>
-      <c r="B136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>8</v>
       </c>
-      <c r="B137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2</v>
       </c>
-      <c r="B138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>3</v>
       </c>
-      <c r="B139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>6</v>
       </c>
-      <c r="B140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>7</v>
       </c>
-      <c r="B141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>9</v>
       </c>
-      <c r="B142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2</v>
       </c>
-      <c r="B143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>9</v>
       </c>
-      <c r="B144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>8</v>
       </c>
-      <c r="B145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1</v>
       </c>
-      <c r="B146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>5</v>
       </c>
-      <c r="B147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>4</v>
       </c>
-      <c r="B148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>3</v>
       </c>
-      <c r="B149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>6</v>
       </c>
-      <c r="B150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>7</v>
       </c>
-      <c r="B151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2</v>
       </c>
-      <c r="B152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>9</v>
       </c>
-      <c r="B153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>8</v>
       </c>
-      <c r="B154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>2</v>
       </c>
-      <c r="B155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>6</v>
       </c>
-      <c r="B156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>5</v>
       </c>
-      <c r="B157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>3</v>
       </c>
-      <c r="B158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>10</v>
       </c>
-      <c r="B159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2</v>
       </c>
-      <c r="B160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1</v>
       </c>
-      <c r="B161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>5</v>
       </c>
-      <c r="B162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>7</v>
       </c>
-      <c r="B163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>6</v>
       </c>
-      <c r="B164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>5</v>
       </c>
-      <c r="B165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>10</v>
       </c>
-      <c r="B166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>7</v>
       </c>
-      <c r="B167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>10</v>
       </c>
-      <c r="B168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>5</v>
       </c>
-      <c r="B169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>8</v>
       </c>
-      <c r="B170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>8</v>
       </c>
-      <c r="B171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>7</v>
       </c>
-      <c r="B172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>6</v>
       </c>
-      <c r="B173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>9</v>
       </c>
-      <c r="B174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>7</v>
       </c>
-      <c r="B175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>7</v>
       </c>
-      <c r="B176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>10</v>
       </c>
-      <c r="B177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>10</v>
       </c>
-      <c r="B178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1</v>
       </c>
-      <c r="B179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1</v>
       </c>
-      <c r="B180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>8</v>
       </c>
-      <c r="B181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>10</v>
       </c>
-      <c r="B182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>2</v>
       </c>
-      <c r="B183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>4</v>
       </c>
-      <c r="B184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>8</v>
       </c>
-      <c r="B185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>2</v>
       </c>
-      <c r="B186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>7</v>
       </c>
-      <c r="B187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>6</v>
       </c>
-      <c r="B188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>9</v>
       </c>
-      <c r="B189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>9</v>
       </c>
-      <c r="B190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>3</v>
       </c>
-      <c r="B191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>6</v>
       </c>
-      <c r="B192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>8</v>
       </c>
-      <c r="B193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>3</v>
       </c>
-      <c r="B194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1</v>
       </c>
-      <c r="B195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>9</v>
       </c>
-      <c r="B196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>4</v>
       </c>
-      <c r="B197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>7</v>
       </c>
-      <c r="B198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>2</v>
       </c>
-      <c r="B199">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>6</v>
       </c>
-      <c r="B200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>10</v>
       </c>
-      <c r="B201">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>4</v>
       </c>
-      <c r="B202">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>6</v>
       </c>
-      <c r="B203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>6</v>
       </c>
-      <c r="B204">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>2</v>
       </c>
-      <c r="B205">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1</v>
       </c>
-      <c r="B206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>9</v>
       </c>
-      <c r="B207">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>10</v>
       </c>
-      <c r="B208">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>5</v>
       </c>
-      <c r="B209">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>7</v>
       </c>
-      <c r="B210">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>9</v>
       </c>
-      <c r="B211">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>9</v>
       </c>
-      <c r="B212">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>2</v>
       </c>
-      <c r="B213">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>5</v>
       </c>
-      <c r="B214">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>7</v>
       </c>
-      <c r="B215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>9</v>
       </c>
-      <c r="B216">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>5</v>
       </c>
-      <c r="B217">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1</v>
       </c>
-      <c r="B218">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>8</v>
       </c>
-      <c r="B219">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>5</v>
       </c>
-      <c r="B220">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>4</v>
       </c>
-      <c r="B221">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>3</v>
       </c>
-      <c r="B222">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>3</v>
       </c>
-      <c r="B223">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1</v>
       </c>
-      <c r="B224">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>3</v>
       </c>
-      <c r="B225">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>8</v>
       </c>
-      <c r="B226">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>8</v>
       </c>
-      <c r="B227">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>4</v>
       </c>
-      <c r="B228">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>5</v>
       </c>
-      <c r="B229">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>5</v>
       </c>
-      <c r="B230">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>2</v>
       </c>
-      <c r="B231">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>6</v>
       </c>
-      <c r="B232">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>7</v>
       </c>
-      <c r="B233">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>2</v>
       </c>
-      <c r="B234">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>10</v>
       </c>
-      <c r="B235">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>4</v>
       </c>
-      <c r="B236">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>2</v>
       </c>
-      <c r="B237">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>7</v>
       </c>
-      <c r="B238">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1</v>
       </c>
-      <c r="B239">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1</v>
       </c>
-      <c r="B240">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>2</v>
       </c>
-      <c r="B241">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>9</v>
       </c>
-      <c r="B242">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>4</v>
       </c>
-      <c r="B243">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>2</v>
       </c>
-      <c r="B244">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>7</v>
       </c>
-      <c r="B245">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>8</v>
       </c>
-      <c r="B246">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1</v>
       </c>
-      <c r="B247">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>10</v>
       </c>
-      <c r="B248">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>5</v>
       </c>
-      <c r="B249">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>8</v>
       </c>
-      <c r="B250">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>3</v>
       </c>
-      <c r="B251">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>9</v>
       </c>
-      <c r="B252">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>3</v>
       </c>
-      <c r="B253">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>8</v>
       </c>
-      <c r="B254">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>10</v>
       </c>
-      <c r="B255">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>9</v>
       </c>
-      <c r="B256">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>5</v>
       </c>
-      <c r="B257">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>6</v>
       </c>
-      <c r="B258">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>2</v>
       </c>
-      <c r="B259">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>5</v>
       </c>
-      <c r="B260">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>5</v>
       </c>
-      <c r="B261">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>9</v>
       </c>
-      <c r="B262">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>3</v>
       </c>
-      <c r="B263">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>2</v>
       </c>
-      <c r="B264">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>1</v>
       </c>
-      <c r="B265">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>3</v>
       </c>
-      <c r="B266">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>9</v>
       </c>
-      <c r="B267">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>10</v>
       </c>
-      <c r="B268">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>10</v>
       </c>
-      <c r="B269">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>7</v>
       </c>
-      <c r="B270">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>2</v>
       </c>
-      <c r="B271">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>6</v>
       </c>
-      <c r="B272">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>7</v>
       </c>
-      <c r="B273">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>9</v>
       </c>
-      <c r="B274">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>3</v>
       </c>
-      <c r="B275">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>8</v>
       </c>
-      <c r="B276">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>9</v>
       </c>
-      <c r="B277">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>6</v>
       </c>
-      <c r="B278">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>10</v>
       </c>
-      <c r="B279">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>6</v>
       </c>
-      <c r="B280">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>4</v>
       </c>
-      <c r="B281">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>6</v>
       </c>
-      <c r="B282">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>2</v>
       </c>
-      <c r="B283">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>5</v>
       </c>
-      <c r="B284">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>8</v>
       </c>
-      <c r="B285">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>3</v>
       </c>
-      <c r="B286">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>9</v>
       </c>
-      <c r="B287">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4267,7 +3223,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -4991,18 +3947,18 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A145">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A145">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:D102"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A116" workbookViewId="0">
       <selection activeCell="E2" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
@@ -6127,12 +5083,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B4:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="F15" sqref="B4:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6305,11 +5261,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -6466,12 +5422,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M13"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A2:E13"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:L4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6479,24 +5435,24 @@
     <col min="1" max="2" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -6516,7 +5472,7 @@
         <v>0.11888111888111888</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -6535,20 +5491,8 @@
         <f>C3+C4</f>
         <v>0.23776223776223776</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>3</v>
-      </c>
-      <c r="M4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -6568,7 +5512,7 @@
         <v>0.32517482517482516</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -6588,7 +5532,7 @@
         <v>0.40909090909090906</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -6608,7 +5552,7 @@
         <v>0.48951048951048948</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -6628,7 +5572,7 @@
         <v>0.57692307692307687</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -6648,7 +5592,7 @@
         <v>0.67832167832167822</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -6668,7 +5612,7 @@
         <v>0.80069930069930062</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -6688,7 +5632,7 @@
         <v>0.91608391608391604</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -6708,9 +5652,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B13" s="5">
         <v>286</v>

--- a/Data_for_labs_v1.xlsx
+++ b/Data_for_labs_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mislav\Introduction_to_DS_Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A13BC4-FB4C-4302-A0C1-C02FA64712EB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6111A4DC-9FBC-4AC4-AB55-06E5812C14AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4455" yWindow="2400" windowWidth="25035" windowHeight="11565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12450" yWindow="2415" windowWidth="25035" windowHeight="11565" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loans Number" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,8 @@
     <sheet name="Restaurant guests" sheetId="3" r:id="rId3"/>
     <sheet name="Exercise 4" sheetId="5" r:id="rId4"/>
     <sheet name="Exercise 5" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="27">
   <si>
     <t>Loans number per day Branch 1</t>
   </si>
@@ -119,24 +115,6 @@
     <t>Turnover in HRK</t>
   </si>
   <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>fi</t>
-  </si>
-  <si>
-    <t>xi</t>
-  </si>
-  <si>
-    <t>fr</t>
-  </si>
-  <si>
-    <t>frpcg</t>
-  </si>
-  <si>
-    <t>CMLTFr</t>
-  </si>
-  <si>
     <t>Loans</t>
   </si>
 </sst>
@@ -201,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -212,11 +190,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -233,1264 +206,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="user" refreshedDate="43925.374453124998" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="286" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:A287" sheet="Loans Number"/>
-  </cacheSource>
-  <cacheFields count="2">
-    <cacheField name="Loans number per day Branch 1" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="10" count="10">
-        <n v="4"/>
-        <n v="7"/>
-        <n v="1"/>
-        <n v="9"/>
-        <n v="8"/>
-        <n v="2"/>
-        <n v="10"/>
-        <n v="3"/>
-        <n v="6"/>
-        <n v="5"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Brojač" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="286">
-  <r>
-    <x v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="xi">
-  <location ref="A2:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="11">
-        <item x="2"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="0"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="fi" fld="1" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1758,7 +473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+    <sheetView topLeftCell="A200" workbookViewId="0">
       <selection activeCell="B287" sqref="B1:B287"/>
     </sheetView>
   </sheetViews>
@@ -3223,7 +1938,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -5085,176 +3800,176 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B4:J15"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="B4:F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+    <row r="1" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
         <v>1.69</v>
       </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
         <v>1.69</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1">
+      <c r="B3" s="1">
         <v>8</v>
       </c>
-      <c r="D6" s="1">
+      <c r="C3" s="1">
         <v>6.78</v>
       </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1">
+        <v>13.55</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1">
-        <v>13.55</v>
-      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1">
-        <v>21</v>
-      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1">
         <v>10</v>
       </c>
-      <c r="C9" s="1">
-        <v>18</v>
-      </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
-        <v>11</v>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9</v>
       </c>
       <c r="C10" s="1">
-        <v>14</v>
+        <v>7.62</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>12</v>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1">
+        <v>8</v>
       </c>
       <c r="C11" s="1">
-        <v>12</v>
+        <v>6.78</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1">
-        <v>10</v>
-      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1">
+        <v>118</v>
+      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1">
-        <v>9</v>
-      </c>
-      <c r="D13" s="1">
-        <v>7.62</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="1">
-        <v>8</v>
-      </c>
-      <c r="D14" s="1">
-        <v>6.78</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="1">
-        <v>118</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5263,10 +3978,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A2:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5277,395 +3992,144 @@
     <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2800</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>2800</v>
+        <v>1300</v>
       </c>
       <c r="C3" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="C4" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="C5" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="C6" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>2200</v>
+        <v>1300</v>
       </c>
       <c r="C7" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>800</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
         <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1300</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1400</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
         <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>800</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>1400</v>
+        <v>2100</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2100</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A2:E13"/>
-  <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <v>34</v>
-      </c>
-      <c r="C3">
-        <f>GETPIVOTDATA("Brojač",$A$2,"Loans number per day Branch 1",1)/GETPIVOTDATA("Brojač",$A$2)</f>
-        <v>0.11888111888111888</v>
-      </c>
-      <c r="D3">
-        <f>C3*100</f>
-        <v>11.888111888111888</v>
-      </c>
-      <c r="E3">
-        <f>C3</f>
-        <v>0.11888111888111888</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5">
-        <v>34</v>
-      </c>
-      <c r="C4">
-        <f>GETPIVOTDATA("Brojač",$A$2,"Loans number per day Branch 1",2)/GETPIVOTDATA("Brojač",$A$2)</f>
-        <v>0.11888111888111888</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D12" si="0">C4*100</f>
-        <v>11.888111888111888</v>
-      </c>
-      <c r="E4">
-        <f>C3+C4</f>
-        <v>0.23776223776223776</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5">
-        <v>25</v>
-      </c>
-      <c r="C5">
-        <f>GETPIVOTDATA("Brojač",$A$2,"Loans number per day Branch 1",3)/GETPIVOTDATA("Brojač",$A$2)</f>
-        <v>8.7412587412587409E-2</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>8.7412587412587417</v>
-      </c>
-      <c r="E5">
-        <f>C3+C4+C5</f>
-        <v>0.32517482517482516</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5">
-        <v>24</v>
-      </c>
-      <c r="C6">
-        <f>GETPIVOTDATA("Brojač",$A$2,"Loans number per day Branch 1",4)/GETPIVOTDATA("Brojač",$A$2)</f>
-        <v>8.3916083916083919E-2</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>8.3916083916083917</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ref="E6:E12" si="1">E5+C6</f>
-        <v>0.40909090909090906</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <f>GETPIVOTDATA("Brojač",$A$2,"Loans number per day Branch 1",5)/GETPIVOTDATA("Brojač",$A$2)</f>
-        <v>8.0419580419580416E-2</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>8.0419580419580416</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>0.48951048951048948</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5">
-        <v>25</v>
-      </c>
-      <c r="C8">
-        <f>GETPIVOTDATA("Brojač",$A$2,"Loans number per day Branch 1",6)/GETPIVOTDATA("Brojač",$A$2)</f>
-        <v>8.7412587412587409E-2</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>8.7412587412587417</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>0.57692307692307687</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5">
-        <v>29</v>
-      </c>
-      <c r="C9">
-        <f>GETPIVOTDATA("Brojač",$A$2,"Loans number per day Branch 1",7)/GETPIVOTDATA("Brojač",$A$2)</f>
-        <v>0.10139860139860139</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>10.13986013986014</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>0.67832167832167822</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5">
-        <v>35</v>
-      </c>
-      <c r="C10">
-        <f>GETPIVOTDATA("Brojač",$A$2,"Loans number per day Branch 1",8)/GETPIVOTDATA("Brojač",$A$2)</f>
-        <v>0.12237762237762238</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>12.237762237762238</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>0.80069930069930062</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5">
-        <v>33</v>
-      </c>
-      <c r="C11">
-        <f>GETPIVOTDATA("Brojač",$A$2,"Loans number per day Branch 1",9)/GETPIVOTDATA("Brojač",$A$2)</f>
-        <v>0.11538461538461539</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>11.538461538461538</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>0.91608391608391604</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5">
-        <v>24</v>
-      </c>
-      <c r="C12">
-        <f>GETPIVOTDATA("Brojač",$A$2,"Loans number per day Branch 1",10)/GETPIVOTDATA("Brojač",$A$2)</f>
-        <v>8.3916083916083919E-2</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>8.3916083916083917</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="5">
-        <v>286</v>
-      </c>
-      <c r="C13">
-        <f>SUM(C3:C12)</f>
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <f>SUM(D3:D12)</f>
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Data_for_labs_v1.xlsx
+++ b/Data_for_labs_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mislav\Introduction_to_DS_Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6111A4DC-9FBC-4AC4-AB55-06E5812C14AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D035EEC0-4C4F-4311-BC66-0BF54E4DBC0E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12450" yWindow="2415" windowWidth="25035" windowHeight="11565" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15750" yWindow="2580" windowWidth="25035" windowHeight="11565" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loans Number" sheetId="1" r:id="rId1"/>
@@ -2671,1125 +2671,1125 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:D102"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="E2" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14">
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16">
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17">
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19">
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20">
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22">
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24">
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25">
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26">
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27">
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28">
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="C28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29">
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30">
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31">
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="C31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32">
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="C32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33">
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="C33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34">
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35">
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="C35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36">
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37">
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38">
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="C38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39">
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="C39" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40">
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="C40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41">
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="C41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42">
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="C42" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43">
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="C43" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44">
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="C44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45">
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="C45" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46">
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="C46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47">
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="C47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48">
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="C48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49">
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="C49" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50">
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="C50" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51">
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="C51" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52">
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="C52" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53">
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>51</v>
       </c>
-      <c r="C53" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54">
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>52</v>
       </c>
-      <c r="C54" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55">
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>53</v>
       </c>
-      <c r="C55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56">
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>54</v>
       </c>
-      <c r="C56" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57">
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>55</v>
       </c>
-      <c r="C57" t="s">
-        <v>4</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58">
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>56</v>
       </c>
-      <c r="C58" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59">
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>57</v>
       </c>
-      <c r="C59" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60">
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>58</v>
       </c>
-      <c r="C60" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61">
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>59</v>
       </c>
-      <c r="C61" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62">
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>60</v>
       </c>
-      <c r="C62" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63">
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>61</v>
       </c>
-      <c r="C63" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B64">
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>62</v>
       </c>
-      <c r="C64" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65">
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>63</v>
       </c>
-      <c r="C65" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66">
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>64</v>
       </c>
-      <c r="C66" t="s">
-        <v>4</v>
-      </c>
-      <c r="D66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67">
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>65</v>
       </c>
-      <c r="C67" t="s">
-        <v>4</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68">
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>66</v>
       </c>
-      <c r="C68" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69">
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>67</v>
       </c>
-      <c r="C69" t="s">
-        <v>4</v>
-      </c>
-      <c r="D69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70">
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>68</v>
       </c>
-      <c r="C70" t="s">
-        <v>4</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71">
+      <c r="B69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>69</v>
       </c>
-      <c r="C71" t="s">
-        <v>5</v>
-      </c>
-      <c r="D71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72">
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>70</v>
       </c>
-      <c r="C72" t="s">
-        <v>5</v>
-      </c>
-      <c r="D72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73">
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>71</v>
       </c>
-      <c r="C73" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74">
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>72</v>
       </c>
-      <c r="C74" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B75">
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>73</v>
       </c>
-      <c r="C75" t="s">
-        <v>4</v>
-      </c>
-      <c r="D75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76">
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>74</v>
       </c>
-      <c r="C76" t="s">
-        <v>5</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77">
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>75</v>
       </c>
-      <c r="C77" t="s">
-        <v>4</v>
-      </c>
-      <c r="D77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B78">
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>76</v>
       </c>
-      <c r="C78" t="s">
-        <v>4</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B79">
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>77</v>
       </c>
-      <c r="C79" t="s">
-        <v>5</v>
-      </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B80">
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>78</v>
       </c>
-      <c r="C80" t="s">
-        <v>4</v>
-      </c>
-      <c r="D80">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81">
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>79</v>
       </c>
-      <c r="C81" t="s">
-        <v>4</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82">
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>80</v>
       </c>
-      <c r="C82" t="s">
-        <v>5</v>
-      </c>
-      <c r="D82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83">
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>81</v>
       </c>
-      <c r="C83" t="s">
-        <v>5</v>
-      </c>
-      <c r="D83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84">
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>82</v>
       </c>
-      <c r="C84" t="s">
-        <v>5</v>
-      </c>
-      <c r="D84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85">
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>83</v>
       </c>
-      <c r="C85" t="s">
-        <v>4</v>
-      </c>
-      <c r="D85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86">
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>84</v>
       </c>
-      <c r="C86" t="s">
-        <v>5</v>
-      </c>
-      <c r="D86">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B87">
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>85</v>
       </c>
-      <c r="C87" t="s">
-        <v>4</v>
-      </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B88">
+      <c r="B86" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>86</v>
       </c>
-      <c r="C88" t="s">
-        <v>4</v>
-      </c>
-      <c r="D88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B89">
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>87</v>
       </c>
-      <c r="C89" t="s">
-        <v>5</v>
-      </c>
-      <c r="D89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B90">
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>88</v>
       </c>
-      <c r="C90" t="s">
-        <v>5</v>
-      </c>
-      <c r="D90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B91">
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>89</v>
       </c>
-      <c r="C91" t="s">
-        <v>5</v>
-      </c>
-      <c r="D91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B92">
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>90</v>
       </c>
-      <c r="C92" t="s">
-        <v>4</v>
-      </c>
-      <c r="D92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B93">
+      <c r="B91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>91</v>
       </c>
-      <c r="C93" t="s">
-        <v>4</v>
-      </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B94">
+      <c r="B92" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>92</v>
       </c>
-      <c r="C94" t="s">
-        <v>5</v>
-      </c>
-      <c r="D94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B95">
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>93</v>
       </c>
-      <c r="C95" t="s">
-        <v>4</v>
-      </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B96">
+      <c r="B94" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>94</v>
       </c>
-      <c r="C96" t="s">
-        <v>4</v>
-      </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B97">
+      <c r="B95" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>95</v>
       </c>
-      <c r="C97" t="s">
-        <v>5</v>
-      </c>
-      <c r="D97">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B98">
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>96</v>
       </c>
-      <c r="C98" t="s">
-        <v>5</v>
-      </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B99">
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>97</v>
       </c>
-      <c r="C99" t="s">
-        <v>5</v>
-      </c>
-      <c r="D99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B100">
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>98</v>
       </c>
-      <c r="C100" t="s">
-        <v>4</v>
-      </c>
-      <c r="D100">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B101">
+      <c r="B99" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>99</v>
       </c>
-      <c r="C101" t="s">
-        <v>4</v>
-      </c>
-      <c r="D101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B102">
+      <c r="B100" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>100</v>
       </c>
-      <c r="C102" t="s">
-        <v>5</v>
-      </c>
-      <c r="D102">
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101">
         <v>1</v>
       </c>
     </row>
@@ -3802,7 +3802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
